--- a/medicine/Psychotrope/Maes_Radler/Maes_Radler.xlsx
+++ b/medicine/Psychotrope/Maes_Radler/Maes_Radler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Maes Radler est une bière belge de type panaché appartenant à Alken-Maes, filiale du groupe Heineken.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lancement en avril 2013 de la Maes Radler Citron, un nouveau type de pils jusque-là inconnue sur le marché belge est un grand succès. Plus d’un million de personnes l'ont goûtée et elle est devenue un véritable succès commercial en très peu de temps[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lancement en avril 2013 de la Maes Radler Citron, un nouveau type de pils jusque-là inconnue sur le marché belge est un grand succès. Plus d’un million de personnes l'ont goûtée et elle est devenue un véritable succès commercial en très peu de temps.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Maes Radler Citron, une bière plus légère (le taux d'alcool est de 2 % en volume) et plus rafraîchissante grâce à son mélange d'une pils et de jus de citron.
 La Maes Radler Pamplemousse avec le même pourcentage de volume d'alcool complète la gamme des Maes Radler depuis 2014.
@@ -577,7 +593,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">maes.be : site officiel
 </t>
